--- a/备忘/money.xlsx
+++ b/备忘/money.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhbli\notes\备忘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2A7C73-F5BC-4C67-A585-56F373F94DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F109A781-CB53-4865-B1E8-5CAF4C88EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86" yWindow="0" windowWidth="11143" windowHeight="13080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工资" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="工行存单" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'202404'!$A$1:$E$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'202404'!$A$1:$E$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
   <si>
     <t>岗位工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吉野家晚饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体检费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +258,91 @@
   </si>
   <si>
     <t>王作广午饭20240413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC读写卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度网盘会员</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>零食薯片鸭舌</t>
+  </si>
+  <si>
+    <t>剪子胶带</t>
+  </si>
+  <si>
+    <t>吉野家晚饭咖喱鸡盖饭</t>
+  </si>
+  <si>
+    <t>手机壳</t>
+  </si>
+  <si>
+    <t>买电子书</t>
+  </si>
+  <si>
+    <t>通气鼻贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车20240406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑葚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子书库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣架固定器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,13 +487,31 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -717,7 +816,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -747,7 +846,7 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="25"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -775,7 +874,7 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="25"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -803,7 +902,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="25"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -831,7 +930,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="25"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -859,7 +958,7 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="25"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -887,7 +986,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -917,7 +1016,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
@@ -947,7 +1046,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="A10" s="25"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -975,7 +1074,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="25"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1102,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="25"/>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1031,7 +1130,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="25"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1059,7 +1158,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="25"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1186,7 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1117,10 +1216,10 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="5">
         <f>C8-C15</f>
         <v>8553.39</v>
@@ -1503,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6D9568-74D3-474C-9293-54B80770A9AD}">
   <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A481" sqref="A481:B483"/>
+    <sheetView topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="C483" sqref="C483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7360,7 +7459,7 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <v>45383</v>
       </c>
     </row>
@@ -7814,769 +7913,1010 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7867578-E36C-400E-ABCE-0AD8AC83605D}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="22">
         <v>45383</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="23">
         <v>-37.82</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="E2" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
         <v>45384</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="23">
         <v>8754.08</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="24">
         <v>45383</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22">
         <v>45384</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="23">
         <v>20000</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22">
         <v>45385</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="23">
         <v>-2002</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="22">
         <v>45385</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="23">
         <v>-320</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22">
         <v>45385</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="23">
         <v>-138</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="E7" s="21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="22">
         <v>45385</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="23">
         <v>-26.7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22">
+        <v>45385</v>
+      </c>
+      <c r="B9" s="23">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>45385</v>
-      </c>
-      <c r="B9" s="17">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22">
+        <v>45386</v>
+      </c>
+      <c r="B10" s="23">
+        <v>320</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
+        <v>45387</v>
+      </c>
+      <c r="B11" s="23">
+        <v>-100000</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>45387</v>
+      </c>
+      <c r="B12" s="23">
+        <v>-45</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="22">
+        <v>45387</v>
+      </c>
+      <c r="B13" s="23">
+        <v>-40</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="22">
+        <v>45387</v>
+      </c>
+      <c r="B14" s="23">
+        <v>-80</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
+        <v>45387</v>
+      </c>
+      <c r="B15" s="23">
+        <v>-29.7</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="22">
+        <v>45387</v>
+      </c>
+      <c r="B16" s="23">
+        <v>-20</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B17" s="23">
+        <v>-31.97</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B18" s="23">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E18" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B19" s="23">
+        <v>8</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B20" s="23">
+        <v>-18</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B21" s="23">
+        <v>-3.1</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B22" s="23">
+        <v>-158</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B23" s="23">
+        <v>-46.75</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B24" s="23">
+        <v>39.5</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B25" s="23">
+        <v>39.5</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B26" s="23">
+        <v>39.5</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B27" s="23">
+        <v>8</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>45386</v>
-      </c>
-      <c r="B10" s="17">
-        <v>320</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="22">
+        <v>45389</v>
+      </c>
+      <c r="B28" s="23">
+        <v>38</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="22">
+        <v>45390</v>
+      </c>
+      <c r="B29" s="23">
+        <v>-39.5</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="22">
+        <v>45392</v>
+      </c>
+      <c r="B30" s="23">
+        <v>-5</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="22">
+        <v>45392</v>
+      </c>
+      <c r="B31" s="23">
+        <v>-1.5</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D31" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="22">
+        <v>45393</v>
+      </c>
+      <c r="B32" s="23">
+        <v>-39</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="22">
+        <v>45393</v>
+      </c>
+      <c r="B33" s="23">
+        <v>-16</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="22">
+        <v>45394</v>
+      </c>
+      <c r="B34" s="23">
+        <v>-179.56</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="22">
+        <v>45394</v>
+      </c>
+      <c r="B35" s="23">
+        <v>-12.5</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B36" s="23">
+        <v>-17525.189999999999</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B37" s="23">
+        <v>17525.189999999999</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B38" s="23">
+        <v>-81.88</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B39" s="23">
+        <v>-35</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B40" s="23">
+        <v>-17.53</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B41" s="23">
+        <v>-256.10000000000002</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B42" s="23">
+        <v>-77</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B43" s="23">
+        <v>40</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>45387</v>
-      </c>
-      <c r="B11" s="17">
-        <v>-100000</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E43" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B44" s="23">
+        <v>-27.46</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="22">
+        <v>45396</v>
+      </c>
+      <c r="B45" s="23">
+        <v>-3</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>45387</v>
-      </c>
-      <c r="B12" s="17">
-        <v>-45</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="22">
+        <v>45396</v>
+      </c>
+      <c r="B46" s="23">
+        <v>-25</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>45387</v>
-      </c>
-      <c r="B13" s="17">
-        <v>-40</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D46" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="22">
+        <v>45396</v>
+      </c>
+      <c r="B47" s="23">
+        <v>-90.29</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D47" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>45387</v>
-      </c>
-      <c r="B14" s="17">
-        <v>-80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E47" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="22">
+        <v>45396</v>
+      </c>
+      <c r="B48" s="23">
+        <v>-107.1</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>45387</v>
-      </c>
-      <c r="B15" s="17">
-        <v>-29.7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E48" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="22">
+        <v>45396</v>
+      </c>
+      <c r="B49" s="23">
+        <v>-51.2</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>45387</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="E49" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="22">
+        <v>45396</v>
+      </c>
+      <c r="B50" s="23">
+        <v>-19.5</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="22">
+        <v>45397</v>
+      </c>
+      <c r="B51" s="23">
+        <v>-9.9</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="22">
+        <v>45397</v>
+      </c>
+      <c r="B52" s="23">
+        <v>-30.58</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="22">
+        <v>45397</v>
+      </c>
+      <c r="B53" s="23">
+        <v>-7.9</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="22">
+        <v>45398</v>
+      </c>
+      <c r="B54" s="23">
+        <v>-38.81</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="22">
+        <v>45398</v>
+      </c>
+      <c r="B55" s="23">
+        <v>-21.85</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="22">
+        <v>45398</v>
+      </c>
+      <c r="B56" s="23">
+        <v>-382</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="22">
+        <v>45398</v>
+      </c>
+      <c r="B57" s="23">
         <v>-20</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C57" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B17" s="17">
-        <v>-31.97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B18" s="17">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B19" s="17">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B20" s="17">
-        <v>-18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B21" s="17">
-        <v>-3.1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B22" s="17">
-        <v>-158</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B23" s="17">
-        <v>-46.75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B24" s="17">
-        <v>39.5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B25" s="17">
-        <v>39.5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B26" s="17">
-        <v>39.5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>45388</v>
-      </c>
-      <c r="B27" s="17">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>45389</v>
-      </c>
-      <c r="B28" s="17">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>45390</v>
-      </c>
-      <c r="B29" s="17">
-        <v>-39.5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>45392</v>
-      </c>
-      <c r="B30" s="17">
-        <v>-5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>45392</v>
-      </c>
-      <c r="B31" s="17">
-        <v>-1.5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>45393</v>
-      </c>
-      <c r="B32" s="17">
-        <v>-39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>45393</v>
-      </c>
-      <c r="B33" s="17">
-        <v>-16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>45394</v>
-      </c>
-      <c r="B34" s="17">
-        <v>-179.56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>45395</v>
-      </c>
-      <c r="B35" s="17">
-        <v>-17525.189999999999</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>45395</v>
-      </c>
-      <c r="B36" s="17">
-        <v>-17.53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>45395</v>
-      </c>
-      <c r="B37" s="17">
-        <v>-77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>45395</v>
-      </c>
-      <c r="B38" s="17">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>45395</v>
-      </c>
-      <c r="B39" s="17">
-        <v>-27.46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>45396</v>
-      </c>
-      <c r="B40" s="17">
-        <v>-19.5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="E57" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>45397</v>
-      </c>
-      <c r="B41" s="17">
-        <v>-30.58</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="22">
         <v>45398</v>
       </c>
-      <c r="B42" s="17">
-        <v>-38.81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>45398</v>
-      </c>
-      <c r="B43" s="17">
-        <v>-21.85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>45398</v>
-      </c>
-      <c r="B44" s="17">
-        <v>-382</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
-        <v>45398</v>
-      </c>
-      <c r="B45" s="17">
-        <v>-20</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" t="s">
-        <v>47</v>
+      <c r="B58" s="21">
+        <v>-0.53</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E45" xr:uid="{F7867578-E36C-400E-ABCE-0AD8AC83605D}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="流转收入"/>
-        <filter val="流转支出"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E58" xr:uid="{F7867578-E36C-400E-ABCE-0AD8AC83605D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
